--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.487771268300849</v>
+        <v>13.48777126828784</v>
       </c>
       <c r="C2">
-        <v>15.33456625109304</v>
+        <v>15.334566251102366</v>
       </c>
       <c r="D2">
-        <v>13.425303737642267</v>
+        <v>13.425303737629369</v>
       </c>
       <c r="E2">
-        <v>15.713057414985599</v>
+        <v>15.713057414942085</v>
       </c>
       <c r="F2">
-        <v>10.379212941054309</v>
+        <v>10.379212940898377</v>
       </c>
       <c r="G2">
-        <v>13.066484177590029</v>
+        <v>13.066484177610477</v>
       </c>
       <c r="H2">
-        <v>10.666995123162524</v>
+        <v>10.666995123174249</v>
       </c>
       <c r="I2">
-        <v>12.371838148120844</v>
+        <v>12.371838148068685</v>
       </c>
       <c r="J2">
-        <v>15.269480134827049</v>
+        <v>15.269480135151225</v>
       </c>
       <c r="K2">
-        <v>12.135632264778341</v>
+        <v>12.135632264784514</v>
       </c>
       <c r="L2">
-        <v>11.898375175901748</v>
+        <v>11.898375175938334</v>
       </c>
       <c r="M2">
-        <v>13.735318238605082</v>
+        <v>13.735318238555161</v>
       </c>
       <c r="N2">
-        <v>13.006797630992217</v>
+        <v>13.006797630940293</v>
       </c>
       <c r="O2">
-        <v>11.088586800611766</v>
+        <v>11.088586800610617</v>
       </c>
       <c r="P2">
-        <v>14.076437986805379</v>
+        <v>14.076437986786484</v>
       </c>
       <c r="Q2">
-        <v>12.462760009225676</v>
+        <v>12.462760009235231</v>
       </c>
       <c r="R2">
-        <v>10.975468096589381</v>
+        <v>10.975468096729349</v>
       </c>
       <c r="S2">
-        <v>17.589799585253932</v>
+        <v>17.589799585202574</v>
       </c>
       <c r="T2">
-        <v>12.819769190143706</v>
+        <v>12.819769190078995</v>
       </c>
       <c r="U2">
-        <v>14.323303323885526</v>
+        <v>14.323303323928801</v>
       </c>
       <c r="V2">
-        <v>9.9363610130107158</v>
+        <v>9.9363610129572848</v>
       </c>
       <c r="W2">
-        <v>9.039893824132319</v>
+        <v>9.0398938243165965</v>
       </c>
       <c r="X2">
-        <v>13.828673238757627</v>
+        <v>13.828673238840667</v>
       </c>
       <c r="Y2">
-        <v>14.592902803498085</v>
+        <v>14.592902803486451</v>
       </c>
       <c r="Z2">
-        <v>14.349911109319399</v>
+        <v>14.349911109292323</v>
       </c>
       <c r="AA2">
-        <v>14.217677881511252</v>
+        <v>14.217677882443633</v>
       </c>
       <c r="AB2">
-        <v>15.708510032093621</v>
+        <v>15.708510032101067</v>
       </c>
       <c r="AC2">
-        <v>12.738150835360756</v>
+        <v>12.738150835358327</v>
       </c>
       <c r="AD2">
-        <v>15.848118284928303</v>
+        <v>15.848118284914467</v>
       </c>
       <c r="AE2">
-        <v>11.940862460004551</v>
+        <v>11.940862459948745</v>
       </c>
       <c r="AF2">
-        <v>13.310117339473933</v>
+        <v>13.310117339371116</v>
       </c>
       <c r="AG2">
-        <v>10.920604625524495</v>
+        <v>10.920604625777115</v>
       </c>
       <c r="AH2">
-        <v>12.077354939871949</v>
+        <v>12.077354939966581</v>
       </c>
       <c r="AI2">
-        <v>16.449687253921859</v>
+        <v>16.449687253890836</v>
       </c>
       <c r="AJ2">
-        <v>12.172548561819418</v>
+        <v>12.172548561870236</v>
       </c>
       <c r="AK2">
-        <v>12.172637852400481</v>
+        <v>12.172637852377855</v>
       </c>
       <c r="AL2">
-        <v>14.340960101704011</v>
+        <v>14.340960101746495</v>
       </c>
       <c r="AM2">
-        <v>12.23581716213933</v>
+        <v>12.235817162159993</v>
       </c>
       <c r="AN2">
-        <v>12.009443207688086</v>
+        <v>12.009443207668815</v>
       </c>
       <c r="AO2">
-        <v>14.907932080260034</v>
+        <v>14.907932080354671</v>
       </c>
       <c r="AP2">
-        <v>13.006058237877252</v>
+        <v>13.006058237809762</v>
       </c>
       <c r="AQ2">
-        <v>11.247681488551184</v>
+        <v>11.247681488554406</v>
       </c>
       <c r="AR2">
-        <v>16.526500147884196</v>
+        <v>16.526500148966743</v>
       </c>
       <c r="AS2">
-        <v>12.914194914485829</v>
+        <v>12.914194915111191</v>
       </c>
       <c r="AT2">
-        <v>15.869439712013131</v>
+        <v>15.869439711998931</v>
       </c>
       <c r="AU2">
-        <v>11.507636743031316</v>
+        <v>11.507636743067685</v>
       </c>
       <c r="AV2">
-        <v>10.110004211264298</v>
+        <v>10.110004211327036</v>
       </c>
       <c r="AW2">
-        <v>13.217009812689801</v>
+        <v>13.217009812734618</v>
       </c>
       <c r="AX2">
-        <v>15.626540752388088</v>
+        <v>15.626540752374893</v>
       </c>
       <c r="AY2">
-        <v>15.821370602524103</v>
+        <v>15.821370602507359</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.930286162564428</v>
+        <v>13.930286162547878</v>
       </c>
       <c r="C3">
-        <v>12.995587860726838</v>
+        <v>12.995587860721916</v>
       </c>
       <c r="D3">
-        <v>14.989940040330346</v>
+        <v>14.9899400403916</v>
       </c>
       <c r="E3">
-        <v>13.531265454559211</v>
+        <v>13.531265461766628</v>
       </c>
       <c r="F3">
-        <v>10.127382240270318</v>
+        <v>10.127382240296479</v>
       </c>
       <c r="G3">
-        <v>13.661537374708498</v>
+        <v>13.661537374777561</v>
       </c>
       <c r="H3">
-        <v>9.813975665338722</v>
+        <v>9.8139756653311938</v>
       </c>
       <c r="I3">
-        <v>12.628795043531788</v>
+        <v>12.628795043528488</v>
       </c>
       <c r="J3">
-        <v>15.762299142790404</v>
+        <v>15.762299142816225</v>
       </c>
       <c r="K3">
-        <v>14.365677959395997</v>
+        <v>14.365677959429709</v>
       </c>
       <c r="L3">
-        <v>12.17367392518676</v>
+        <v>12.173673925179363</v>
       </c>
       <c r="M3">
-        <v>14.319023301844483</v>
+        <v>14.318987834039698</v>
       </c>
       <c r="N3">
-        <v>12.50273074500897</v>
+        <v>12.502730745004795</v>
       </c>
       <c r="O3">
-        <v>9.3802489713982169</v>
+        <v>9.3802489714476938</v>
       </c>
       <c r="P3">
-        <v>13.542413299321924</v>
+        <v>13.542413299342732</v>
       </c>
       <c r="Q3">
-        <v>10.846355323955436</v>
+        <v>10.846355323942749</v>
       </c>
       <c r="R3">
-        <v>9.0770161858495477</v>
+        <v>9.0770161858068636</v>
       </c>
       <c r="S3">
-        <v>15.068667572255981</v>
+        <v>15.068667572247071</v>
       </c>
       <c r="T3">
-        <v>12.932793119538985</v>
+        <v>12.932793119577255</v>
       </c>
       <c r="U3">
-        <v>15.420087670502102</v>
+        <v>15.420087670517546</v>
       </c>
       <c r="V3">
-        <v>11.44690867842723</v>
+        <v>11.44690867836086</v>
       </c>
       <c r="W3">
-        <v>10.551290384693182</v>
+        <v>10.551290384864613</v>
       </c>
       <c r="X3">
-        <v>12.388296990200322</v>
+        <v>12.388296990199557</v>
       </c>
       <c r="Y3">
-        <v>16.730253634618155</v>
+        <v>16.730253634601709</v>
       </c>
       <c r="Z3">
-        <v>15.215223108111358</v>
+        <v>15.215223108154749</v>
       </c>
       <c r="AA3">
-        <v>14.153166080037671</v>
+        <v>14.153166080070104</v>
       </c>
       <c r="AB3">
-        <v>14.286339766460204</v>
+        <v>14.28633976647845</v>
       </c>
       <c r="AC3">
-        <v>15.025407037686783</v>
+        <v>15.025407037772023</v>
       </c>
       <c r="AD3">
-        <v>16.280153285076576</v>
+        <v>16.280153285105435</v>
       </c>
       <c r="AE3">
-        <v>12.11164524956045</v>
+        <v>12.111645249514186</v>
       </c>
       <c r="AF3">
-        <v>13.860657115580965</v>
+        <v>13.860657115606925</v>
       </c>
       <c r="AG3">
-        <v>11.639197296931544</v>
+        <v>11.639197296947291</v>
       </c>
       <c r="AH3">
-        <v>13.576378978450093</v>
+        <v>13.576378978578047</v>
       </c>
       <c r="AI3">
-        <v>19.988608918036903</v>
+        <v>19.988608918346497</v>
       </c>
       <c r="AJ3">
-        <v>12.614639456804841</v>
+        <v>12.614639456845861</v>
       </c>
       <c r="AK3">
-        <v>13.415643984252171</v>
+        <v>13.415643984265181</v>
       </c>
       <c r="AL3">
-        <v>13.909842818986268</v>
+        <v>13.909842818975369</v>
       </c>
       <c r="AM3">
-        <v>12.957339580989816</v>
+        <v>12.957339580952244</v>
       </c>
       <c r="AN3">
-        <v>10.569520032628651</v>
+        <v>10.569520032663908</v>
       </c>
       <c r="AO3">
-        <v>14.345925710731125</v>
+        <v>14.345925710512555</v>
       </c>
       <c r="AP3">
-        <v>10.650867835387464</v>
+        <v>10.650867835615898</v>
       </c>
       <c r="AQ3">
-        <v>10.500067707665545</v>
+        <v>10.500067707951816</v>
       </c>
       <c r="AR3">
-        <v>17.341373861857843</v>
+        <v>17.341373862076853</v>
       </c>
       <c r="AS3">
-        <v>12.0369207035231</v>
+        <v>12.036920703474369</v>
       </c>
       <c r="AT3">
-        <v>15.461555473668698</v>
+        <v>15.461555473766367</v>
       </c>
       <c r="AU3">
-        <v>11.329586187856028</v>
+        <v>11.329586188007394</v>
       </c>
       <c r="AV3">
-        <v>10.206278684460205</v>
+        <v>10.20627868460708</v>
       </c>
       <c r="AW3">
-        <v>12.789117072336275</v>
+        <v>12.789117072257028</v>
       </c>
       <c r="AX3">
-        <v>14.987094712923071</v>
+        <v>14.98709471297046</v>
       </c>
       <c r="AY3">
-        <v>17.126273344382692</v>
+        <v>17.126273344370329</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.48777126828784</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.334566251102366</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>13.425303737629369</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>15.713057414942085</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.379212940898377</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.066484177610477</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.666995123174249</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.371838148068685</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.269480135151225</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.135632264784514</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.898375175938334</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.735318238555161</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.006797630940293</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.088586800610617</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.076437986786484</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.462760009235231</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>10.975468096729349</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.589799585202574</v>
+        <v>16.388379969352489</v>
       </c>
       <c r="T2">
         <v>12.819769190078995</v>
@@ -573,7 +462,7 @@
         <v>14.323303323928801</v>
       </c>
       <c r="V2">
-        <v>9.9363610129572848</v>
+        <v>10.019519777015756</v>
       </c>
       <c r="W2">
         <v>9.0398938243165965</v>
@@ -588,55 +477,55 @@
         <v>14.349911109292323</v>
       </c>
       <c r="AA2">
-        <v>14.217677882443633</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.708510032101067</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>12.738150835358327</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>15.848118284914467</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.940862459948745</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.310117339371116</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>10.920604625777115</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.077354939966581</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>16.449687253890836</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>12.172548561870236</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.172637852377855</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.340960101746495</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>12.235817162159993</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.009443207668815</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>14.907932080354671</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.006058237809762</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.247681488554406</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>16.526500148966743</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.930286162547878</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>12.995587860721916</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>14.9899400403916</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13.531265461766628</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.127382240296479</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>13.661537374777561</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.8139756653311938</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.628795043528488</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>15.762299142816225</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.365677959429709</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.173673925179363</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.318987834039698</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.502730745004795</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.3802489714476938</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.542413299342732</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.846355323942749</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>9.0770161858068636</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.068667572247071</v>
@@ -743,55 +629,55 @@
         <v>15.215223108154749</v>
       </c>
       <c r="AA3">
-        <v>14.153166080070104</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>14.28633976647845</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.025407037772023</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>16.280153285105435</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.111645249514186</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>13.860657115606925</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.639197296947291</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>13.576378978578047</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>19.988608918346497</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>12.614639456845861</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>13.415643984265181</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>13.909842818975369</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>12.957339580952244</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>10.569520032663908</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>14.345925710512555</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>10.650867835615898</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.500067707951816</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.341373862076853</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.487771268300849</v>
+        <v>11.088586800610617</v>
       </c>
       <c r="C2">
-        <v>14.566574099997245</v>
+        <v>10.975468096729349</v>
       </c>
       <c r="D2">
-        <v>13.425303737642267</v>
+        <v>12.009443207668815</v>
       </c>
       <c r="E2">
-        <v>15.713057414985599</v>
+        <v>11.247681488554406</v>
       </c>
       <c r="F2">
         <v>10.379212941054309</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.930286162564428</v>
+        <v>10.319760442308223</v>
       </c>
       <c r="C3">
-        <v>12.995587860726838</v>
+        <v>9.0770161858068636</v>
       </c>
       <c r="D3">
-        <v>14.989940040330346</v>
+        <v>10.672956785928051</v>
       </c>
       <c r="E3">
-        <v>13.531265454559211</v>
+        <v>11.102607522646252</v>
       </c>
       <c r="F3">
         <v>10.127382240270318</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.487771268300849</v>
+        <v>12.637594603067761</v>
       </c>
       <c r="C2">
-        <v>14.566574099997245</v>
+        <v>11.088586800610617</v>
       </c>
       <c r="D2">
-        <v>13.425303737642267</v>
+        <v>12.235817162159993</v>
       </c>
       <c r="E2">
-        <v>15.713057414985599</v>
+        <v>12.009443207668815</v>
       </c>
       <c r="F2">
         <v>10.379212941054309</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.930286162564428</v>
+        <v>12.502730745004795</v>
       </c>
       <c r="C3">
-        <v>12.995587860726838</v>
+        <v>10.319760442308223</v>
       </c>
       <c r="D3">
-        <v>14.989940040330346</v>
+        <v>12.957339580952244</v>
       </c>
       <c r="E3">
-        <v>14.651526166597723</v>
+        <v>10.672956785928051</v>
       </c>
       <c r="F3">
         <v>10.127382240270318</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_zero.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.48777126828784</v>
+      </c>
+      <c r="C2">
+        <v>14.566574099986726</v>
+      </c>
+      <c r="D2">
+        <v>13.425303737629369</v>
+      </c>
+      <c r="E2">
+        <v>15.713057414942085</v>
+      </c>
+      <c r="F2">
+        <v>10.379212940898377</v>
+      </c>
+      <c r="G2">
+        <v>13.517690933794013</v>
+      </c>
+      <c r="H2">
+        <v>10.666995123174249</v>
+      </c>
+      <c r="I2">
+        <v>12.744500623343724</v>
+      </c>
+      <c r="J2">
+        <v>15.269480135151225</v>
+      </c>
+      <c r="K2">
+        <v>12.135632264784514</v>
+      </c>
+      <c r="L2">
+        <v>11.589093673674821</v>
+      </c>
+      <c r="M2">
+        <v>14.858986339690288</v>
+      </c>
+      <c r="N2">
         <v>12.637594603067761</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.088586800610617</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.231233740262059</v>
+      </c>
+      <c r="Q2">
+        <v>12.462760009235231</v>
+      </c>
+      <c r="R2">
+        <v>10.975468096729349</v>
+      </c>
+      <c r="T2">
+        <v>12.331865340760311</v>
+      </c>
+      <c r="U2">
+        <v>14.323303323928801</v>
+      </c>
+      <c r="V2">
+        <v>10.469780812190905</v>
+      </c>
+      <c r="W2">
+        <v>9.0398938243165965</v>
+      </c>
+      <c r="X2">
+        <v>13.828673238840667</v>
+      </c>
+      <c r="Y2">
+        <v>14.592902803486451</v>
+      </c>
+      <c r="Z2">
+        <v>14.349911109292323</v>
+      </c>
+      <c r="AA2">
+        <v>14.217677882443633</v>
+      </c>
+      <c r="AB2">
+        <v>15.708510032101067</v>
+      </c>
+      <c r="AC2">
+        <v>12.738150835358327</v>
+      </c>
+      <c r="AD2">
+        <v>15.848118284914467</v>
+      </c>
+      <c r="AE2">
+        <v>11.940862459948745</v>
+      </c>
+      <c r="AF2">
+        <v>13.310117339371116</v>
+      </c>
+      <c r="AG2">
+        <v>10.920604625777115</v>
+      </c>
+      <c r="AH2">
+        <v>12.077354939966581</v>
+      </c>
+      <c r="AI2">
+        <v>16.449687253890836</v>
+      </c>
+      <c r="AJ2">
+        <v>12.172548561870236</v>
+      </c>
+      <c r="AK2">
+        <v>12.172637852377855</v>
+      </c>
+      <c r="AL2">
+        <v>14.340960101746495</v>
+      </c>
+      <c r="AM2">
         <v>12.235817162159993</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.009443207668815</v>
       </c>
-      <c r="F2">
-        <v>10.379212941054309</v>
-      </c>
-      <c r="G2">
-        <v>13.5176909338358</v>
-      </c>
-      <c r="H2">
-        <v>10.666995123162524</v>
-      </c>
-      <c r="I2">
-        <v>12.74450062305884</v>
-      </c>
-      <c r="J2">
-        <v>15.269480134827049</v>
-      </c>
-      <c r="K2">
-        <v>12.135632264778341</v>
-      </c>
-      <c r="L2">
-        <v>11.589093673678711</v>
-      </c>
-      <c r="M2">
-        <v>14.858986339627231</v>
-      </c>
-      <c r="N2">
-        <v>12.637594602880032</v>
-      </c>
-      <c r="O2">
-        <v>11.088586800611766</v>
-      </c>
-      <c r="P2">
-        <v>14.231233740329548</v>
-      </c>
-      <c r="Q2">
-        <v>12.462760009225676</v>
-      </c>
-      <c r="R2">
-        <v>10.975468096589381</v>
-      </c>
-      <c r="T2">
-        <v>12.331865340707235</v>
-      </c>
-      <c r="U2">
-        <v>14.323303323885526</v>
-      </c>
-      <c r="V2">
-        <v>10.469780812187951</v>
-      </c>
-      <c r="W2">
-        <v>9.039893824132319</v>
-      </c>
-      <c r="X2">
-        <v>13.828673238757627</v>
-      </c>
-      <c r="Y2">
-        <v>14.592902803498085</v>
-      </c>
-      <c r="Z2">
-        <v>14.349911109319399</v>
-      </c>
-      <c r="AA2">
-        <v>14.217677881511252</v>
-      </c>
-      <c r="AB2">
-        <v>15.708510032093621</v>
-      </c>
-      <c r="AC2">
-        <v>12.738150835360756</v>
-      </c>
-      <c r="AD2">
-        <v>15.848118284928303</v>
-      </c>
-      <c r="AE2">
-        <v>11.940862460004551</v>
-      </c>
-      <c r="AF2">
-        <v>13.310117339473933</v>
-      </c>
-      <c r="AG2">
-        <v>10.920604625524495</v>
-      </c>
-      <c r="AH2">
-        <v>12.077354939871949</v>
-      </c>
-      <c r="AI2">
-        <v>16.449687253921859</v>
-      </c>
-      <c r="AJ2">
-        <v>12.172548561819418</v>
-      </c>
-      <c r="AK2">
-        <v>12.172637852400481</v>
-      </c>
-      <c r="AL2">
-        <v>14.340960101704011</v>
-      </c>
-      <c r="AM2">
-        <v>12.23581716213933</v>
-      </c>
-      <c r="AN2">
-        <v>12.009443207688086</v>
-      </c>
       <c r="AO2">
-        <v>14.907932080260034</v>
+        <v>14.907932080354671</v>
       </c>
       <c r="AP2">
-        <v>13.433821943466937</v>
+        <v>13.433821943417708</v>
       </c>
       <c r="AQ2">
-        <v>11.247681488551184</v>
+        <v>11.247681488554406</v>
       </c>
       <c r="AR2">
-        <v>16.526500147884196</v>
+        <v>16.526500148966743</v>
       </c>
       <c r="AS2">
-        <v>12.914194914485829</v>
+        <v>12.914194915111191</v>
       </c>
       <c r="AT2">
-        <v>15.869439712013131</v>
+        <v>15.869439711998931</v>
       </c>
       <c r="AU2">
-        <v>10.454556323835369</v>
+        <v>10.454556327613806</v>
       </c>
       <c r="AV2">
-        <v>10.110004211264298</v>
+        <v>10.110004211327036</v>
       </c>
       <c r="AW2">
-        <v>13.217009812689801</v>
+        <v>13.217009812734618</v>
       </c>
       <c r="AX2">
-        <v>15.626540752388088</v>
+        <v>15.626540752374893</v>
       </c>
       <c r="AY2">
-        <v>15.821370602524103</v>
+        <v>15.821370602507359</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.930286162547878</v>
+      </c>
+      <c r="C3">
+        <v>12.995587860721916</v>
+      </c>
+      <c r="D3">
+        <v>14.9899400403916</v>
+      </c>
+      <c r="E3">
+        <v>14.651526176791998</v>
+      </c>
+      <c r="F3">
+        <v>10.127382240296479</v>
+      </c>
+      <c r="G3">
+        <v>13.661537374777561</v>
+      </c>
+      <c r="H3">
+        <v>9.8139756653311938</v>
+      </c>
+      <c r="I3">
+        <v>12.628795043528488</v>
+      </c>
+      <c r="J3">
+        <v>15.762299142816225</v>
+      </c>
+      <c r="K3">
+        <v>13.957418145280476</v>
+      </c>
+      <c r="L3">
+        <v>12.173673925179363</v>
+      </c>
+      <c r="M3">
+        <v>13.104383553066196</v>
+      </c>
+      <c r="N3">
         <v>12.502730745004795</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>10.319760442308223</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>13.542413299342732</v>
+      </c>
+      <c r="Q3">
+        <v>10.846355323942749</v>
+      </c>
+      <c r="R3">
+        <v>9.0770161858068636</v>
+      </c>
+      <c r="S3">
+        <v>15.068667572247071</v>
+      </c>
+      <c r="T3">
+        <v>12.932793119577255</v>
+      </c>
+      <c r="U3">
+        <v>15.420087670517546</v>
+      </c>
+      <c r="V3">
+        <v>11.838515592652509</v>
+      </c>
+      <c r="W3">
+        <v>10.551290384864613</v>
+      </c>
+      <c r="X3">
+        <v>12.388296990199557</v>
+      </c>
+      <c r="Y3">
+        <v>16.730253634601709</v>
+      </c>
+      <c r="Z3">
+        <v>15.215223108154749</v>
+      </c>
+      <c r="AA3">
+        <v>14.153166080070104</v>
+      </c>
+      <c r="AB3">
+        <v>14.28633976647845</v>
+      </c>
+      <c r="AC3">
+        <v>15.025407037772023</v>
+      </c>
+      <c r="AD3">
+        <v>16.280153285105435</v>
+      </c>
+      <c r="AE3">
+        <v>12.111645249514186</v>
+      </c>
+      <c r="AF3">
+        <v>13.860657115606925</v>
+      </c>
+      <c r="AG3">
+        <v>11.639197295498624</v>
+      </c>
+      <c r="AH3">
+        <v>13.576378978578047</v>
+      </c>
+      <c r="AI3">
+        <v>14.985379136820157</v>
+      </c>
+      <c r="AJ3">
+        <v>12.614639456845861</v>
+      </c>
+      <c r="AK3">
+        <v>13.415643984265181</v>
+      </c>
+      <c r="AL3">
+        <v>13.909842818975369</v>
+      </c>
+      <c r="AM3">
         <v>12.957339580952244</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>10.672956785928051</v>
       </c>
-      <c r="F3">
-        <v>10.127382240270318</v>
-      </c>
-      <c r="G3">
-        <v>13.661537374708498</v>
-      </c>
-      <c r="H3">
-        <v>9.813975665338722</v>
-      </c>
-      <c r="I3">
-        <v>12.628795043531788</v>
-      </c>
-      <c r="J3">
-        <v>15.762299142790404</v>
-      </c>
-      <c r="K3">
-        <v>13.957418145228894</v>
-      </c>
-      <c r="L3">
-        <v>12.17367392518676</v>
-      </c>
-      <c r="M3">
-        <v>13.104350362798925</v>
-      </c>
-      <c r="N3">
-        <v>12.50273074500897</v>
-      </c>
-      <c r="O3">
-        <v>10.319760442126476</v>
-      </c>
-      <c r="P3">
-        <v>13.542413299321924</v>
-      </c>
-      <c r="Q3">
-        <v>10.846355323955436</v>
-      </c>
-      <c r="R3">
-        <v>9.0770161858495477</v>
-      </c>
-      <c r="S3">
-        <v>15.068667572255981</v>
-      </c>
-      <c r="T3">
-        <v>12.932793119538985</v>
-      </c>
-      <c r="U3">
-        <v>15.420087670502102</v>
-      </c>
-      <c r="V3">
-        <v>11.838515592995398</v>
-      </c>
-      <c r="W3">
-        <v>10.551290384693182</v>
-      </c>
-      <c r="X3">
-        <v>12.388296990200322</v>
-      </c>
-      <c r="Y3">
-        <v>16.730253634618155</v>
-      </c>
-      <c r="Z3">
-        <v>15.215223108111358</v>
-      </c>
-      <c r="AA3">
-        <v>14.153166080037671</v>
-      </c>
-      <c r="AB3">
-        <v>14.286339766460204</v>
-      </c>
-      <c r="AC3">
-        <v>15.025407037686783</v>
-      </c>
-      <c r="AD3">
-        <v>16.280153285076576</v>
-      </c>
-      <c r="AE3">
-        <v>12.11164524956045</v>
-      </c>
-      <c r="AF3">
-        <v>13.860657115580965</v>
-      </c>
-      <c r="AG3">
-        <v>11.639197295482877</v>
-      </c>
-      <c r="AH3">
-        <v>13.576378978450093</v>
-      </c>
-      <c r="AI3">
-        <v>14.985379136956736</v>
-      </c>
-      <c r="AJ3">
-        <v>12.614639456804841</v>
-      </c>
-      <c r="AK3">
-        <v>13.415643984252171</v>
-      </c>
-      <c r="AL3">
-        <v>13.909842818986268</v>
-      </c>
-      <c r="AM3">
-        <v>12.957339580989816</v>
-      </c>
-      <c r="AN3">
-        <v>10.672956785891802</v>
-      </c>
       <c r="AO3">
-        <v>14.345925710731125</v>
+        <v>14.345925710512555</v>
       </c>
       <c r="AP3">
-        <v>10.650867835387464</v>
+        <v>10.650867835615898</v>
       </c>
       <c r="AQ3">
-        <v>11.102607522657324</v>
+        <v>11.102607522646252</v>
       </c>
       <c r="AR3">
-        <v>17.341373861857843</v>
+        <v>17.341373862076853</v>
       </c>
       <c r="AS3">
-        <v>12.0369207035231</v>
+        <v>12.036920703474369</v>
       </c>
       <c r="AT3">
-        <v>15.461555473668698</v>
+        <v>15.461555473766367</v>
       </c>
       <c r="AU3">
-        <v>11.428152997386087</v>
+        <v>11.428152997627423</v>
       </c>
       <c r="AV3">
-        <v>10.206278684460205</v>
+        <v>10.20627868460708</v>
       </c>
       <c r="AW3">
-        <v>12.789117072336275</v>
+        <v>12.789117072257028</v>
       </c>
       <c r="AX3">
-        <v>14.987094712923071</v>
+        <v>14.98709471297046</v>
       </c>
       <c r="AY3">
-        <v>17.126273344382692</v>
+        <v>17.126273344370329</v>
       </c>
     </row>
   </sheetData>
